--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -34,13 +34,13 @@
     <t>Purgatory Comp Tickets</t>
   </si>
   <si>
+    <t>Purgatory Coaster</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
     <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45982</v>
+        <v>45974</v>
       </c>
       <c r="C2" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45985</v>
+        <v>45983</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45986</v>
+        <v>45990</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="C5" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="C6" s="2">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45991</v>
+        <v>45968</v>
       </c>
       <c r="C7" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="C8" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45968</v>
+        <v>45989</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45982</v>
+        <v>45990</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45991</v>
+        <v>45981</v>
       </c>
       <c r="C15" s="2">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45992</v>
+        <v>45987</v>
       </c>
       <c r="C17" s="2">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45974</v>
+        <v>45989</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45983</v>
+        <v>45991</v>
       </c>
       <c r="C19" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C20" s="2">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45992</v>
+        <v>45966</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45993</v>
+        <v>45969</v>
       </c>
       <c r="C22" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45981</v>
+        <v>45985</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45984</v>
+        <v>45988</v>
       </c>
       <c r="C24" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="C25" s="2">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C26" s="2">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45991</v>
+        <v>45985</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45992</v>
+        <v>45986</v>
       </c>
       <c r="C28" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45984</v>
+        <v>45988</v>
       </c>
       <c r="C29" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="C30" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C31" s="2">
-        <v>335</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C32" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -902,7 +902,7 @@
         <v>174</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -930,7 +930,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -958,7 +958,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45966</v>
+        <v>45984</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45969</v>
+        <v>45987</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="C43" s="2">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45988</v>
+        <v>45990</v>
       </c>
       <c r="C44" s="2">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,7 +1039,7 @@
         <v>45991</v>
       </c>
       <c r="C45" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -1053,10 +1053,10 @@
         <v>45983</v>
       </c>
       <c r="C46" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1070,7 +1070,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1126,7 +1126,7 @@
         <v>263</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1140,7 +1140,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1182,7 +1182,7 @@
         <v>183</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45968</v>
+        <v>45986</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +535,10 @@
         <v>45989</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C12" s="2">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -588,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C14" s="2">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45966</v>
+        <v>45987</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45969</v>
+        <v>45989</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45985</v>
+        <v>45990</v>
       </c>
       <c r="C17" s="2">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="C18" s="2">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45991</v>
+        <v>45968</v>
       </c>
       <c r="C19" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="C20" s="2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="C21" s="2">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,7 +717,7 @@
         <v>45989</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C24" s="2">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C25" s="2">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="C26" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -812,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45993</v>
+        <v>45986</v>
       </c>
       <c r="C29" s="2">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="C30" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="C31" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45986</v>
+        <v>45991</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="C33" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="C34" s="2">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45991</v>
+        <v>45981</v>
       </c>
       <c r="C35" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C36" s="2">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45993</v>
+        <v>45987</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45984</v>
+        <v>45989</v>
       </c>
       <c r="C38" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="C39" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="C40" s="2">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45990</v>
+        <v>45966</v>
       </c>
       <c r="C41" s="2">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45991</v>
+        <v>45969</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45981</v>
+        <v>45985</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45984</v>
+        <v>45988</v>
       </c>
       <c r="C44" s="2">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="C45" s="2">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C46" s="2">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45991</v>
+        <v>45986</v>
       </c>
       <c r="C47" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C48" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="C49" s="2">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C50" s="2">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C51" s="2">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C52" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>45992</v>
       </c>
       <c r="C53" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>45993</v>
       </c>
       <c r="C54" s="2">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,7 +1179,7 @@
         <v>45993</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45974</v>
+        <v>45966</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45983</v>
+        <v>45968</v>
       </c>
       <c r="C3" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45990</v>
+        <v>45969</v>
       </c>
       <c r="C4" s="2">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45974</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45981</v>
       </c>
       <c r="C6" s="2">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45986</v>
+        <v>45982</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C8" s="2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C9" s="2">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C10" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45993</v>
+        <v>45984</v>
       </c>
       <c r="C12" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="C14" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="C15" s="2">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="C16" s="2">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45990</v>
+        <v>45986</v>
       </c>
       <c r="C17" s="2">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45968</v>
+        <v>45987</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,10 +717,10 @@
         <v>45989</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="C24" s="2">
-        <v>309</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C26" s="2">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="C27" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="C28" s="2">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="C30" s="2">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C31" s="2">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C32" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="C33" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -882,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45981</v>
+        <v>45990</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45984</v>
+        <v>45990</v>
       </c>
       <c r="C36" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45987</v>
+        <v>45991</v>
       </c>
       <c r="C37" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C38" s="2">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +955,10 @@
         <v>45991</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C40" s="2">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45966</v>
+        <v>45991</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45969</v>
+        <v>45991</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45985</v>
+        <v>45991</v>
       </c>
       <c r="C43" s="2">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="C44" s="2">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="C45" s="2">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45983</v>
+        <v>45992</v>
       </c>
       <c r="C46" s="2">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45986</v>
+        <v>45992</v>
       </c>
       <c r="C47" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
@@ -1092,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1106,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45990</v>
+        <v>45993</v>
       </c>
       <c r="C50" s="2">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1120,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45990</v>
+        <v>45993</v>
       </c>
       <c r="C51" s="2">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C52" s="2">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>45993</v>
       </c>
       <c r="C54" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,9 +1179,653 @@
         <v>45993</v>
       </c>
       <c r="C55" s="2">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C56" s="2">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C57" s="2">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C58" s="2">
+        <v>279</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C59" s="2">
+        <v>66</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C62" s="2">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C63" s="2">
+        <v>69</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C64" s="2">
+        <v>357</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C65" s="2">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C68" s="2">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C69" s="2">
+        <v>70</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C70" s="2">
+        <v>409</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C71" s="2">
+        <v>105</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C76" s="2">
+        <v>62</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C77" s="2">
+        <v>52</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C78" s="2">
+        <v>115</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1156</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C80" s="2">
+        <v>250</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C82" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C85" s="2">
+        <v>85</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C86" s="2">
+        <v>35</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C87" s="2">
+        <v>132</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1061</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C89" s="2">
+        <v>142</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C91" s="2">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C92" s="2">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C93" s="2">
+        <v>106</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C94" s="2">
+        <v>358</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C95" s="2">
+        <v>117</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C97" s="2">
+        <v>21</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C98" s="2">
+        <v>82</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C99" s="2">
+        <v>322</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C100" s="2">
+        <v>118</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45966</v>
+        <v>45965</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45974</v>
+        <v>45969</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45981</v>
+        <v>45969</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45982</v>
+        <v>45969</v>
       </c>
       <c r="C7" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45982</v>
+        <v>45969</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45983</v>
+        <v>45971</v>
       </c>
       <c r="C9" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45983</v>
+        <v>45975</v>
       </c>
       <c r="C10" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45984</v>
+        <v>45975</v>
       </c>
       <c r="C11" s="2">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45984</v>
+        <v>45980</v>
       </c>
       <c r="C12" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45985</v>
+        <v>45981</v>
       </c>
       <c r="C13" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45985</v>
+        <v>45981</v>
       </c>
       <c r="C14" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45986</v>
+        <v>45981</v>
       </c>
       <c r="C15" s="2">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45986</v>
+        <v>45981</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45986</v>
+        <v>45981</v>
       </c>
       <c r="C17" s="2">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45987</v>
+        <v>45982</v>
       </c>
       <c r="C18" s="2">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45987</v>
+        <v>45982</v>
       </c>
       <c r="C19" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45988</v>
+        <v>45982</v>
       </c>
       <c r="C20" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45988</v>
+        <v>45982</v>
       </c>
       <c r="C21" s="2">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C22" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C23" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C24" s="2">
-        <v>57</v>
+        <v>1451</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C25" s="2">
-        <v>335</v>
+        <v>572</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C26" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C30" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C31" s="2">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C32" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C33" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C34" s="2">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C35" s="2">
-        <v>164</v>
+        <v>1204</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45990</v>
+        <v>45983</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>950</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45991</v>
+        <v>45983</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C38" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C39" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C40" s="2">
-        <v>309</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C41" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C44" s="2">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C45" s="2">
-        <v>59</v>
+        <v>1514</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C46" s="2">
-        <v>200</v>
+        <v>952</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>7</v>
@@ -1064,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C47" s="2">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45992</v>
+        <v>45985</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45992</v>
+        <v>45985</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C50" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C51" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C52" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C53" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C54" s="2">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45993</v>
+        <v>45985</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45994</v>
+        <v>45985</v>
       </c>
       <c r="C56" s="2">
-        <v>24</v>
+        <v>1280</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45994</v>
+        <v>45985</v>
       </c>
       <c r="C57" s="2">
-        <v>78</v>
+        <v>1230</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>7</v>
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45994</v>
+        <v>45985</v>
       </c>
       <c r="C58" s="2">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45994</v>
+        <v>45986</v>
       </c>
       <c r="C59" s="2">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45994</v>
+        <v>45986</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45994</v>
+        <v>45986</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45995</v>
+        <v>45986</v>
       </c>
       <c r="C62" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45995</v>
+        <v>45986</v>
       </c>
       <c r="C63" s="2">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45995</v>
+        <v>45986</v>
       </c>
       <c r="C64" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45995</v>
+        <v>45986</v>
       </c>
       <c r="C65" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45995</v>
+        <v>45986</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45996</v>
+        <v>45986</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>1215</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45996</v>
+        <v>45986</v>
       </c>
       <c r="C68" s="2">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C69" s="2">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C70" s="2">
-        <v>409</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C71" s="2">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45996</v>
+        <v>45987</v>
       </c>
       <c r="C74" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45997</v>
+        <v>45987</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
+        <v>1034</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45997</v>
+        <v>45987</v>
       </c>
       <c r="C76" s="2">
-        <v>62</v>
+        <v>1436</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45997</v>
+        <v>45987</v>
       </c>
       <c r="C77" s="2">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C78" s="2">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C79" s="2">
-        <v>1156</v>
+        <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C80" s="2">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C82" s="2">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45997</v>
+        <v>45988</v>
       </c>
       <c r="C83" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45998</v>
+        <v>45988</v>
       </c>
       <c r="C84" s="2">
-        <v>4</v>
+        <v>672</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45998</v>
+        <v>45988</v>
       </c>
       <c r="C85" s="2">
-        <v>85</v>
+        <v>1278</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45998</v>
+        <v>45988</v>
       </c>
       <c r="C86" s="2">
-        <v>35</v>
+        <v>558</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="C87" s="2">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="C88" s="2">
-        <v>1061</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="C89" s="2">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="C90" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45998</v>
+        <v>45989</v>
       </c>
       <c r="C91" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45999</v>
+        <v>45989</v>
       </c>
       <c r="C92" s="2">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45999</v>
+        <v>45989</v>
       </c>
       <c r="C93" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45999</v>
+        <v>45989</v>
       </c>
       <c r="C94" s="2">
-        <v>358</v>
+        <v>1141</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45999</v>
+        <v>45989</v>
       </c>
       <c r="C95" s="2">
-        <v>117</v>
+        <v>1402</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45999</v>
+        <v>45989</v>
       </c>
       <c r="C96" s="2">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>46000</v>
+        <v>45990</v>
       </c>
       <c r="C97" s="2">
         <v>21</v>
@@ -1778,13 +1778,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>46000</v>
+        <v>45990</v>
       </c>
       <c r="C98" s="2">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>46000</v>
+        <v>45990</v>
       </c>
       <c r="C99" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>46000</v>
+        <v>45990</v>
       </c>
       <c r="C100" s="2">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,1455 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C104" s="2">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C106" s="2">
+        <v>239</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C107" s="2">
+        <v>46</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C108" s="2">
+        <v>962</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1630</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C110" s="2">
+        <v>368</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C112" s="2">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C114" s="2">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C115" s="2">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C117" s="2">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C118" s="2">
+        <v>197</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C119" s="2">
+        <v>54</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C120" s="2">
+        <v>964</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1317</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C122" s="2">
+        <v>363</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C123" s="2">
+        <v>7</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C126" s="2">
+        <v>11</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C128" s="2">
+        <v>100</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C129" s="2">
+        <v>61</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C130" s="2">
+        <v>656</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C131" s="2">
+        <v>797</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C132" s="2">
+        <v>117</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C133" s="2">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C135" s="2">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C136" s="2">
+        <v>67</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C137" s="2">
+        <v>66</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C138" s="2">
+        <v>488</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C139" s="2">
+        <v>738</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C140" s="2">
+        <v>40</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C141" s="2">
+        <v>4</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C143" s="2">
+        <v>3</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C145" s="2">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C146" s="2">
+        <v>53</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C147" s="2">
+        <v>54</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C148" s="2">
+        <v>593</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C149" s="2">
+        <v>712</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C150" s="2">
+        <v>33</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C152" s="2">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C154" s="2">
+        <v>78</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C155" s="2">
+        <v>67</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C156" s="2">
+        <v>803</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C157" s="2">
+        <v>865</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C158" s="2">
+        <v>64</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C160" s="2">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C162" s="2">
+        <v>93</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C163" s="2">
+        <v>94</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1093</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C166" s="2">
+        <v>85</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C168" s="2">
+        <v>3</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C169" s="2">
+        <v>13</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C171" s="2">
+        <v>173</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C172" s="2">
+        <v>64</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1192</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C175" s="2">
+        <v>235</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C180" s="2">
+        <v>21</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C181" s="2">
+        <v>3</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C182" s="2">
+        <v>166</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C183" s="2">
+        <v>93</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1402</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C186" s="2">
+        <v>205</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C188" s="2">
+        <v>7</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C189" s="2">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C190" s="2">
+        <v>77</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C191" s="2">
+        <v>66</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C192" s="2">
+        <v>718</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C194" s="2">
+        <v>97</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
         <v>46000</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C197" s="2">
         <v>2</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D197" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C198" s="2">
         <v>7</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C199" s="2">
+        <v>7</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C200" s="2">
+        <v>85</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C201" s="2">
+        <v>79</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C202" s="2">
+        <v>570</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C203" s="2">
+        <v>918</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C204" s="2">
+        <v>53</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45986</v>
+        <v>45966</v>
       </c>
       <c r="C10" s="2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45989</v>
+        <v>45969</v>
       </c>
       <c r="C11" s="2">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45989</v>
+        <v>45985</v>
       </c>
       <c r="C12" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45990</v>
+        <v>45988</v>
       </c>
       <c r="C13" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C15" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -630,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C17" s="2">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="C18" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C19" s="2">
-        <v>409</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="C21" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C22" s="2">
-        <v>358</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45999</v>
+        <v>45982</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>46000</v>
+        <v>45985</v>
       </c>
       <c r="C24" s="2">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45982</v>
+        <v>45986</v>
       </c>
       <c r="C25" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="C26" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -798,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="C28" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -812,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="C29" s="2">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C30" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C31" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -882,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="C34" s="2">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>1061</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="C37" s="2">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C38" s="2">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45968</v>
+        <v>45984</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45982</v>
+        <v>45987</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
@@ -997,7 +997,7 @@
         <v>45989</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>7</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1036,10 +1036,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="C45" s="2">
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -1050,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>7</v>
@@ -1064,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C47" s="2">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="C48" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="C49" s="2">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45995</v>
+        <v>45981</v>
       </c>
       <c r="C50" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45996</v>
+        <v>45984</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45997</v>
+        <v>45987</v>
       </c>
       <c r="C52" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45997</v>
+        <v>45989</v>
       </c>
       <c r="C53" s="2">
-        <v>1156</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45998</v>
+        <v>45991</v>
       </c>
       <c r="C54" s="2">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="C55" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45984</v>
+        <v>45995</v>
       </c>
       <c r="C56" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>8</v>
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45987</v>
+        <v>45996</v>
       </c>
       <c r="C57" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="C58" s="2">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="C59" s="2">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>7</v>
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45998</v>
+        <v>45983</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45998</v>
+        <v>45986</v>
       </c>
       <c r="C62" s="2">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>46000</v>
+        <v>45989</v>
       </c>
       <c r="C63" s="2">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45966</v>
+        <v>45989</v>
       </c>
       <c r="C64" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45969</v>
+        <v>45990</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45985</v>
+        <v>45990</v>
       </c>
       <c r="C66" s="2">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="C67" s="2">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="C68" s="2">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C70" s="2">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>7</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C71" s="2">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C72" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C73" s="2">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C74" s="2">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>45999</v>
       </c>
       <c r="C75" s="2">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45981</v>
+        <v>45968</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45984</v>
+        <v>45982</v>
       </c>
       <c r="C77" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="C78" s="2">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>45989</v>
       </c>
       <c r="C79" s="2">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C81" s="2">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45995</v>
+        <v>45991</v>
       </c>
       <c r="C82" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C85" s="2">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="C86" s="2">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>7</v>
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45983</v>
+        <v>45996</v>
       </c>
       <c r="C87" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45986</v>
+        <v>45997</v>
       </c>
       <c r="C88" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,10 +1652,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45989</v>
+        <v>45997</v>
       </c>
       <c r="C89" s="2">
-        <v>4</v>
+        <v>1156</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>7</v>
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45989</v>
+        <v>45998</v>
       </c>
       <c r="C90" s="2">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>7</v>
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45990</v>
+        <v>46000</v>
       </c>
       <c r="C91" s="2">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45990</v>
+        <v>46001</v>
       </c>
       <c r="C92" s="2">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45991</v>
+        <v>45986</v>
       </c>
       <c r="C93" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C94" s="2">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="C95" s="2">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
@@ -1750,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C96" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>7</v>
@@ -1764,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C97" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>7</v>
@@ -1792,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C99" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C100" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,97 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C101" s="2">
+        <v>29</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C102" s="2">
+        <v>409</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C104" s="2">
+        <v>248</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
         <v>45999</v>
       </c>
-      <c r="C101" s="2">
-        <v>19</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>5</v>
+      <c r="C105" s="2">
+        <v>358</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C106" s="2">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C107" s="2">
+        <v>118</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45974</v>
+        <v>45971</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45983</v>
+        <v>45975</v>
       </c>
       <c r="C3" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45990</v>
+        <v>45981</v>
       </c>
       <c r="C4" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45983</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45983</v>
       </c>
       <c r="C6" s="2">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45996</v>
+        <v>45984</v>
       </c>
       <c r="C7" s="2">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45999</v>
+        <v>45984</v>
       </c>
       <c r="C8" s="2">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46000</v>
+        <v>45984</v>
       </c>
       <c r="C9" s="2">
-        <v>322</v>
+        <v>1514</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45966</v>
+        <v>45986</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45969</v>
+        <v>45987</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45985</v>
+        <v>45987</v>
       </c>
       <c r="C12" s="2">
-        <v>51</v>
+        <v>1034</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,7 +591,7 @@
         <v>45988</v>
       </c>
       <c r="C13" s="2">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C14" s="2">
-        <v>113</v>
+        <v>962</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C16" s="2">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C19" s="2">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C20" s="2">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,10 +703,10 @@
         <v>45999</v>
       </c>
       <c r="C21" s="2">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C22" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45982</v>
+        <v>46000</v>
       </c>
       <c r="C23" s="2">
-        <v>19</v>
+        <v>913</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45985</v>
+        <v>45965</v>
       </c>
       <c r="C24" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45986</v>
+        <v>45969</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45988</v>
+        <v>45980</v>
       </c>
       <c r="C26" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C27" s="2">
-        <v>57</v>
+        <v>1451</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45991</v>
+        <v>45982</v>
       </c>
       <c r="C28" s="2">
-        <v>27</v>
+        <v>570</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45992</v>
+        <v>45983</v>
       </c>
       <c r="C29" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45993</v>
+        <v>45983</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45994</v>
+        <v>45985</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45995</v>
+        <v>45985</v>
       </c>
       <c r="C32" s="2">
-        <v>357</v>
+        <v>1230</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45997</v>
+        <v>45986</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45997</v>
+        <v>45986</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45998</v>
+        <v>45986</v>
       </c>
       <c r="C35" s="2">
-        <v>1061</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45998</v>
+        <v>45988</v>
       </c>
       <c r="C36" s="2">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>46000</v>
+        <v>45989</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="C38" s="2">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="C39" s="2">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45984</v>
+        <v>45989</v>
       </c>
       <c r="C40" s="2">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="C41" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C42" s="2">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C43" s="2">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1025,10 @@
         <v>45991</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C45" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C47" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>46001</v>
+        <v>45995</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="C50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45984</v>
+        <v>45997</v>
       </c>
       <c r="C51" s="2">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45987</v>
+        <v>45998</v>
       </c>
       <c r="C52" s="2">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="C53" s="2">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45991</v>
+        <v>46000</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45992</v>
+        <v>46001</v>
       </c>
       <c r="C55" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45995</v>
+        <v>45982</v>
       </c>
       <c r="C56" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45996</v>
+        <v>45982</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45996</v>
+        <v>45982</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45997</v>
+        <v>45983</v>
       </c>
       <c r="C59" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45998</v>
+        <v>45983</v>
       </c>
       <c r="C60" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,10 +1263,10 @@
         <v>45983</v>
       </c>
       <c r="C61" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45986</v>
+        <v>45984</v>
       </c>
       <c r="C62" s="2">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45989</v>
+        <v>45985</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45989</v>
+        <v>45985</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45990</v>
+        <v>45985</v>
       </c>
       <c r="C65" s="2">
-        <v>55</v>
+        <v>1280</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45990</v>
+        <v>45987</v>
       </c>
       <c r="C66" s="2">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C67" s="2">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45992</v>
+        <v>45988</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45993</v>
+        <v>45988</v>
       </c>
       <c r="C69" s="2">
-        <v>11</v>
+        <v>672</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C70" s="2">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45994</v>
+        <v>45990</v>
       </c>
       <c r="C71" s="2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45995</v>
+        <v>45991</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>964</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C73" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C74" s="2">
-        <v>115</v>
+        <v>593</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="C75" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45968</v>
+        <v>45996</v>
       </c>
       <c r="C76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>1059</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45990</v>
+        <v>45968</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45991</v>
+        <v>45968</v>
       </c>
       <c r="C81" s="2">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45991</v>
+        <v>45981</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45992</v>
+        <v>45981</v>
       </c>
       <c r="C83" s="2">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45994</v>
+        <v>45983</v>
       </c>
       <c r="C84" s="2">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45994</v>
+        <v>45984</v>
       </c>
       <c r="C85" s="2">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45995</v>
+        <v>45984</v>
       </c>
       <c r="C86" s="2">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45996</v>
+        <v>45984</v>
       </c>
       <c r="C87" s="2">
-        <v>1</v>
+        <v>949</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45997</v>
+        <v>45986</v>
       </c>
       <c r="C88" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45997</v>
+        <v>45987</v>
       </c>
       <c r="C89" s="2">
-        <v>1156</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45998</v>
+        <v>45987</v>
       </c>
       <c r="C90" s="2">
-        <v>132</v>
+        <v>1435</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>46000</v>
+        <v>45989</v>
       </c>
       <c r="C91" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>46001</v>
+        <v>45990</v>
       </c>
       <c r="C92" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45986</v>
+        <v>45990</v>
       </c>
       <c r="C93" s="2">
-        <v>66</v>
+        <v>1628</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C94" s="2">
-        <v>174</v>
+        <v>368</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45989</v>
+        <v>45991</v>
       </c>
       <c r="C95" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C96" s="2">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C97" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,10 +1781,10 @@
         <v>45993</v>
       </c>
       <c r="C98" s="2">
-        <v>55</v>
+        <v>738</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1795,7 +1795,7 @@
         <v>45993</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>7</v>
@@ -1809,10 +1809,10 @@
         <v>45994</v>
       </c>
       <c r="C100" s="2">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="C101" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1837,7 +1837,7 @@
         <v>45996</v>
       </c>
       <c r="C102" s="2">
-        <v>409</v>
+        <v>85</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>7</v>
@@ -1848,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,10 +1865,10 @@
         <v>45997</v>
       </c>
       <c r="C104" s="2">
-        <v>248</v>
+        <v>1192</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1879,10 +1879,10 @@
         <v>45999</v>
       </c>
       <c r="C105" s="2">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1893,7 +1893,7 @@
         <v>45999</v>
       </c>
       <c r="C106" s="2">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>7</v>
@@ -1907,10 +1907,1508 @@
         <v>46000</v>
       </c>
       <c r="C107" s="2">
-        <v>118</v>
+        <v>570</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C110" s="2">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45975</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C112" s="2">
+        <v>949</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C113" s="2">
+        <v>129</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C114" s="2">
+        <v>5</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C116" s="2">
+        <v>285</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C117" s="2">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1402</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C119" s="2">
+        <v>21</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C120" s="2">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C121" s="2">
+        <v>239</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C123" s="2">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C124" s="2">
+        <v>67</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C125" s="2">
+        <v>33</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C126" s="2">
+        <v>67</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C127" s="2">
+        <v>235</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C129" s="2">
+        <v>93</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C133" s="2">
+        <v>53</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C134" s="2">
+        <v>97</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C135" s="2">
+        <v>725</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C136" s="2">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C137" s="2">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C140" s="2">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C142" s="2">
+        <v>999</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C143" s="2">
+        <v>6</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C144" s="2">
+        <v>22</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C148" s="2">
+        <v>100</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C150" s="2">
+        <v>78</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C152" s="2">
+        <v>166</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C154" s="2">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C155" s="2">
+        <v>80</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C156" s="2">
+        <v>34</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C157" s="2">
+        <v>108</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C158" s="2">
+        <v>18</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C159" s="2">
+        <v>74</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C160" s="2">
+        <v>178</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C161" s="2">
+        <v>24</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C162" s="2">
+        <v>558</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C163" s="2">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C166" s="2">
+        <v>363</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C167" s="2">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C168" s="2">
+        <v>656</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C169" s="2">
+        <v>797</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C171" s="2">
+        <v>803</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C172" s="2">
+        <v>865</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C173" s="2">
+        <v>93</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C177" s="2">
+        <v>77</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C178" s="2">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C181" s="2">
+        <v>4</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C182" s="2">
+        <v>4</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C183" s="2">
+        <v>79</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C184" s="2">
+        <v>3</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C186" s="2">
+        <v>134</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C187" s="2">
+        <v>136</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C188" s="2">
+        <v>42</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C189" s="2">
+        <v>5</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C190" s="2">
+        <v>2</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1278</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C192" s="2">
+        <v>462</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C193" s="2">
+        <v>3</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C194" s="2">
+        <v>46</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C195" s="2">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C196" s="2">
+        <v>4</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1317</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C198" s="2">
+        <v>117</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C199" s="2">
+        <v>66</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C200" s="2">
+        <v>488</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C201" s="2">
+        <v>3</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C202" s="2">
+        <v>712</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C203" s="2">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C204" s="2">
+        <v>64</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C205" s="2">
+        <v>94</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C209" s="2">
+        <v>21</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C210" s="2">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C211" s="2">
+        <v>718</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C213" s="2">
+        <v>7</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C214" s="2">
+        <v>10</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45974</v>
+        <v>45971</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45983</v>
+        <v>45975</v>
       </c>
       <c r="C3" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45990</v>
+        <v>45981</v>
       </c>
       <c r="C4" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45983</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45983</v>
       </c>
       <c r="C6" s="2">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45996</v>
+        <v>45984</v>
       </c>
       <c r="C7" s="2">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45999</v>
+        <v>45984</v>
       </c>
       <c r="C8" s="2">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46000</v>
+        <v>45984</v>
       </c>
       <c r="C9" s="2">
-        <v>322</v>
+        <v>1514</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46002</v>
+        <v>45986</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45984</v>
+        <v>45987</v>
       </c>
       <c r="C12" s="2">
-        <v>36</v>
+        <v>1034</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="C13" s="2">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C14" s="2">
-        <v>179</v>
+        <v>962</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,10 +619,10 @@
         <v>45991</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,10 +633,10 @@
         <v>45992</v>
       </c>
       <c r="C16" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C17" s="2">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +689,10 @@
         <v>45997</v>
       </c>
       <c r="C20" s="2">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45984</v>
+        <v>46000</v>
       </c>
       <c r="C22" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45987</v>
+        <v>46000</v>
       </c>
       <c r="C23" s="2">
-        <v>46</v>
+        <v>913</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45989</v>
+        <v>46002</v>
       </c>
       <c r="C24" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45990</v>
+        <v>45969</v>
       </c>
       <c r="C25" s="2">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45991</v>
+        <v>45969</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45998</v>
+        <v>45975</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45998</v>
+        <v>45983</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>949</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>46000</v>
+        <v>45984</v>
       </c>
       <c r="C29" s="2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>46001</v>
+        <v>45986</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>46001</v>
+        <v>45986</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>1215</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>46002</v>
+        <v>45987</v>
       </c>
       <c r="C32" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45983</v>
+        <v>45989</v>
       </c>
       <c r="C33" s="2">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45986</v>
+        <v>45989</v>
       </c>
       <c r="C34" s="2">
-        <v>61</v>
+        <v>1402</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>45990</v>
       </c>
       <c r="C37" s="2">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C38" s="2">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45991</v>
+        <v>45993</v>
       </c>
       <c r="C39" s="2">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C41" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="C42" s="2">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C43" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C45" s="2">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C46" s="2">
-        <v>115</v>
+        <v>1151</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,10 +1067,10 @@
         <v>45999</v>
       </c>
       <c r="C47" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45968</v>
+        <v>46000</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45982</v>
+        <v>46000</v>
       </c>
       <c r="C49" s="2">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45989</v>
+        <v>46001</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45989</v>
+        <v>46001</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>725</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45990</v>
+        <v>45965</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45991</v>
+        <v>45969</v>
       </c>
       <c r="C53" s="2">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45991</v>
+        <v>45980</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="C55" s="2">
-        <v>59</v>
+        <v>1451</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45994</v>
+        <v>45982</v>
       </c>
       <c r="C56" s="2">
-        <v>21</v>
+        <v>570</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45994</v>
+        <v>45983</v>
       </c>
       <c r="C57" s="2">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45995</v>
+        <v>45983</v>
       </c>
       <c r="C58" s="2">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45996</v>
+        <v>45985</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45997</v>
+        <v>45985</v>
       </c>
       <c r="C60" s="2">
-        <v>50</v>
+        <v>1230</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45997</v>
+        <v>45986</v>
       </c>
       <c r="C61" s="2">
-        <v>1156</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45998</v>
+        <v>45986</v>
       </c>
       <c r="C62" s="2">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>46000</v>
+        <v>45986</v>
       </c>
       <c r="C63" s="2">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>46001</v>
+        <v>45988</v>
       </c>
       <c r="C64" s="2">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>46002</v>
+        <v>45989</v>
       </c>
       <c r="C65" s="2">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45966</v>
+        <v>45989</v>
       </c>
       <c r="C66" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45969</v>
+        <v>45989</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45985</v>
+        <v>45989</v>
       </c>
       <c r="C68" s="2">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45988</v>
+        <v>45990</v>
       </c>
       <c r="C69" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,10 +1389,10 @@
         <v>45991</v>
       </c>
       <c r="C70" s="2">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45996</v>
+        <v>45991</v>
       </c>
       <c r="C72" s="2">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C74" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,10 +1456,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C75" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
@@ -1470,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C76" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="C77" s="2">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C78" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C79" s="2">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45986</v>
+        <v>45998</v>
       </c>
       <c r="C80" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="C81" s="2">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="C82" s="2">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>45990</v>
+        <v>46001</v>
       </c>
       <c r="C83" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>45992</v>
+        <v>46002</v>
       </c>
       <c r="C84" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>45993</v>
+        <v>46002</v>
       </c>
       <c r="C85" s="2">
-        <v>55</v>
+        <v>741</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45993</v>
+        <v>45982</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45994</v>
+        <v>45982</v>
       </c>
       <c r="C87" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45995</v>
+        <v>45982</v>
       </c>
       <c r="C88" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45996</v>
+        <v>45983</v>
       </c>
       <c r="C89" s="2">
-        <v>409</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45996</v>
+        <v>45983</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45997</v>
+        <v>45983</v>
       </c>
       <c r="C91" s="2">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45999</v>
+        <v>45984</v>
       </c>
       <c r="C92" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45999</v>
+        <v>45985</v>
       </c>
       <c r="C93" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>46000</v>
+        <v>45985</v>
       </c>
       <c r="C94" s="2">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>46002</v>
+        <v>45985</v>
       </c>
       <c r="C95" s="2">
-        <v>321</v>
+        <v>1280</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45982</v>
+        <v>45987</v>
       </c>
       <c r="C96" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45985</v>
+        <v>45987</v>
       </c>
       <c r="C97" s="2">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45986</v>
+        <v>45988</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1795,10 +1795,10 @@
         <v>45988</v>
       </c>
       <c r="C99" s="2">
-        <v>39</v>
+        <v>672</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C100" s="2">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C101" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C102" s="2">
-        <v>200</v>
+        <v>964</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1851,10 +1851,10 @@
         <v>45993</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1865,10 +1865,10 @@
         <v>45994</v>
       </c>
       <c r="C104" s="2">
-        <v>1</v>
+        <v>593</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="C105" s="2">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C107" s="2">
-        <v>10</v>
+        <v>1091</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C108" s="2">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1932,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="C109" s="2">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
@@ -1946,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C111" s="2">
-        <v>398</v>
+        <v>1083</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1974,12 +1974,1566 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
+        <v>45968</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45968</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C115" s="2">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C116" s="2">
+        <v>63</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C117" s="2">
+        <v>5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C119" s="2">
+        <v>949</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C120" s="2">
+        <v>58</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1435</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C123" s="2">
+        <v>39</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C124" s="2">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1625</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C126" s="2">
+        <v>368</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C127" s="2">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C128" s="2">
+        <v>61</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C129" s="2">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C130" s="2">
+        <v>738</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C131" s="2">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C132" s="2">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C134" s="2">
+        <v>85</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C135" s="2">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1192</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C138" s="2">
+        <v>97</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C139" s="2">
+        <v>570</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
         <v>46001</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C141" s="2">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C142" s="2">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C145" s="2">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C147" s="2">
+        <v>999</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C148" s="2">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C149" s="2">
+        <v>22</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C153" s="2">
+        <v>100</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C155" s="2">
+        <v>78</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C157" s="2">
+        <v>166</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C159" s="2">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C160" s="2">
+        <v>80</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C161" s="2">
+        <v>82</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C162" s="2">
+        <v>4</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C163" s="2">
+        <v>4</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C164" s="2">
+        <v>79</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C165" s="2">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C167" s="2">
         <v>134</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C168" s="2">
+        <v>136</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C169" s="2">
+        <v>42</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C170" s="2">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1278</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C173" s="2">
+        <v>462</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C174" s="2">
+        <v>3</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C175" s="2">
+        <v>46</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C176" s="2">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C177" s="2">
+        <v>4</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C178" s="2">
+        <v>1317</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C179" s="2">
+        <v>117</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C180" s="2">
+        <v>66</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C181" s="2">
+        <v>488</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C182" s="2">
+        <v>3</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C183" s="2">
+        <v>712</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C184" s="2">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C185" s="2">
+        <v>64</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C186" s="2">
+        <v>94</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C190" s="2">
+        <v>21</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C191" s="2">
+        <v>3</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C192" s="2">
+        <v>718</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C194" s="2">
+        <v>7</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C195" s="2">
+        <v>10</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C196" s="2">
+        <v>34</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C197" s="2">
+        <v>108</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C198" s="2">
+        <v>18</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C199" s="2">
+        <v>74</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C200" s="2">
+        <v>178</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C201" s="2">
+        <v>24</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C202" s="2">
+        <v>558</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C203" s="2">
+        <v>16</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C206" s="2">
+        <v>363</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C207" s="2">
+        <v>11</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C208" s="2">
+        <v>656</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C209" s="2">
+        <v>797</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C211" s="2">
+        <v>803</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C212" s="2">
+        <v>865</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C213" s="2">
+        <v>93</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C217" s="2">
+        <v>77</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C218" s="2">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C223" s="2">
+        <v>91</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45971</v>
+        <v>45966</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45975</v>
+        <v>45969</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45981</v>
+        <v>45985</v>
       </c>
       <c r="C4" s="2">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45983</v>
+        <v>45988</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45983</v>
+        <v>45991</v>
       </c>
       <c r="C6" s="2">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45984</v>
+        <v>45994</v>
       </c>
       <c r="C7" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45984</v>
+        <v>45996</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45984</v>
+        <v>45997</v>
       </c>
       <c r="C9" s="2">
-        <v>1514</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45986</v>
+        <v>45997</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45987</v>
+        <v>45998</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45987</v>
+        <v>45998</v>
       </c>
       <c r="C12" s="2">
-        <v>1034</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45988</v>
+        <v>45999</v>
       </c>
       <c r="C13" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45990</v>
+        <v>46001</v>
       </c>
       <c r="C14" s="2">
-        <v>962</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="C15" s="2">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45992</v>
+        <v>46004</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45994</v>
+        <v>46004</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C18" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45997</v>
+        <v>46005</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>925</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45997</v>
+        <v>45984</v>
       </c>
       <c r="C20" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45999</v>
+        <v>45987</v>
       </c>
       <c r="C21" s="2">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>46000</v>
+        <v>45989</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>46000</v>
+        <v>45990</v>
       </c>
       <c r="C23" s="2">
-        <v>913</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>46002</v>
+        <v>45991</v>
       </c>
       <c r="C24" s="2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45969</v>
+        <v>45998</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45969</v>
+        <v>45998</v>
       </c>
       <c r="C26" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45975</v>
+        <v>46000</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45983</v>
+        <v>46001</v>
       </c>
       <c r="C28" s="2">
-        <v>949</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45984</v>
+        <v>46001</v>
       </c>
       <c r="C29" s="2">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45986</v>
+        <v>46002</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45986</v>
+        <v>46003</v>
       </c>
       <c r="C31" s="2">
-        <v>1215</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45987</v>
+        <v>46003</v>
       </c>
       <c r="C32" s="2">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45989</v>
+        <v>46004</v>
       </c>
       <c r="C33" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45989</v>
+        <v>46005</v>
       </c>
       <c r="C34" s="2">
-        <v>1402</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45990</v>
+        <v>46005</v>
       </c>
       <c r="C35" s="2">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45990</v>
+        <v>46005</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45990</v>
+        <v>45981</v>
       </c>
       <c r="C37" s="2">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45992</v>
+        <v>45984</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45993</v>
+        <v>45987</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="C40" s="2">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="C41" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="C42" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C43" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45997</v>
+        <v>45996</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45998</v>
+        <v>45996</v>
       </c>
       <c r="C45" s="2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C46" s="2">
-        <v>1151</v>
+        <v>62</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C49" s="2">
-        <v>53</v>
+        <v>1130</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C50" s="2">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>46001</v>
+        <v>45986</v>
       </c>
       <c r="C51" s="2">
-        <v>725</v>
+        <v>66</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45965</v>
+        <v>45989</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45969</v>
+        <v>45989</v>
       </c>
       <c r="C53" s="2">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45980</v>
+        <v>45990</v>
       </c>
       <c r="C54" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45982</v>
+        <v>45992</v>
       </c>
       <c r="C55" s="2">
-        <v>1451</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="C56" s="2">
-        <v>570</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45983</v>
+        <v>45993</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45983</v>
+        <v>45994</v>
       </c>
       <c r="C58" s="2">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45985</v>
+        <v>45995</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="C60" s="2">
-        <v>1230</v>
+        <v>411</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45986</v>
+        <v>45996</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45986</v>
+        <v>45997</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45986</v>
+        <v>45999</v>
       </c>
       <c r="C63" s="2">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45988</v>
+        <v>45999</v>
       </c>
       <c r="C64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="C65" s="2">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45989</v>
+        <v>46002</v>
       </c>
       <c r="C66" s="2">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45989</v>
+        <v>46003</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45989</v>
+        <v>46004</v>
       </c>
       <c r="C68" s="2">
-        <v>281</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45990</v>
+        <v>45982</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45991</v>
+        <v>45985</v>
       </c>
       <c r="C70" s="2">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45991</v>
+        <v>45986</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45991</v>
+        <v>45988</v>
       </c>
       <c r="C72" s="2">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C73" s="2">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="C76" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>45997</v>
       </c>
       <c r="C79" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C80" s="2">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="C81" s="2">
-        <v>9</v>
+        <v>1061</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C82" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1568,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C83" s="2">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C84" s="2">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C85" s="2">
-        <v>741</v>
+        <v>134</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>45982</v>
+        <v>46004</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>45982</v>
+        <v>46004</v>
       </c>
       <c r="C88" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>45983</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45983</v>
+        <v>45986</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45983</v>
+        <v>45989</v>
       </c>
       <c r="C91" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,10 +1694,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45984</v>
+        <v>45989</v>
       </c>
       <c r="C92" s="2">
-        <v>288</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45985</v>
+        <v>45990</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45985</v>
+        <v>45990</v>
       </c>
       <c r="C94" s="2">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45985</v>
+        <v>45991</v>
       </c>
       <c r="C95" s="2">
-        <v>1280</v>
+        <v>48</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45987</v>
+        <v>45992</v>
       </c>
       <c r="C96" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45987</v>
+        <v>45993</v>
       </c>
       <c r="C97" s="2">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="C98" s="2">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="C99" s="2">
-        <v>672</v>
+        <v>78</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45990</v>
+        <v>45995</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45990</v>
+        <v>45996</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="C102" s="2">
-        <v>964</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C103" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C104" s="2">
-        <v>593</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>45996</v>
+        <v>46005</v>
       </c>
       <c r="C105" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45996</v>
+        <v>45974</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45996</v>
+        <v>45983</v>
       </c>
       <c r="C107" s="2">
-        <v>1091</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -1918,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45999</v>
+        <v>45990</v>
       </c>
       <c r="C108" s="2">
-        <v>1058</v>
+        <v>239</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="C109" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>46002</v>
+        <v>45993</v>
       </c>
       <c r="C110" s="2">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -1960,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="C111" s="2">
-        <v>1083</v>
+        <v>104</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1974,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45968</v>
+        <v>45999</v>
       </c>
       <c r="C112" s="2">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -1988,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>45968</v>
+        <v>46000</v>
       </c>
       <c r="C113" s="2">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>45981</v>
+        <v>46002</v>
       </c>
       <c r="C114" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>45981</v>
+        <v>46003</v>
       </c>
       <c r="C115" s="2">
-        <v>17</v>
+        <v>538</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>45983</v>
+        <v>46004</v>
       </c>
       <c r="C116" s="2">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>45984</v>
+        <v>46005</v>
       </c>
       <c r="C117" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>45984</v>
+        <v>46005</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2072,10 +2072,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45984</v>
+        <v>45968</v>
       </c>
       <c r="C119" s="2">
-        <v>949</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
@@ -2086,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45986</v>
+        <v>45982</v>
       </c>
       <c r="C120" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>6</v>
@@ -2100,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="C121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45987</v>
+        <v>45989</v>
       </c>
       <c r="C122" s="2">
-        <v>1435</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="C123" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C124" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="C125" s="2">
-        <v>1625</v>
+        <v>3</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2170,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="C126" s="2">
-        <v>368</v>
+        <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>7</v>
@@ -2184,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45991</v>
+        <v>45994</v>
       </c>
       <c r="C127" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C128" s="2">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="C129" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C130" s="2">
-        <v>738</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45993</v>
+        <v>45997</v>
       </c>
       <c r="C131" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C132" s="2">
-        <v>10</v>
+        <v>1156</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C134" s="2">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="C135" s="2">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2310,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C136" s="2">
-        <v>1192</v>
+        <v>174</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>6</v>
@@ -2324,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="C137" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>45999</v>
+        <v>46004</v>
       </c>
       <c r="C138" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2352,1189 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C139" s="2">
-        <v>570</v>
+        <v>332</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="2">
-        <v>45981</v>
-      </c>
-      <c r="C141" s="2">
-        <v>27</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="2">
-        <v>45982</v>
-      </c>
-      <c r="C142" s="2">
-        <v>15</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2">
-        <v>45983</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1204</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="2">
-        <v>45984</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C145" s="2">
-        <v>20</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C146" s="2">
-        <v>2</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="2">
-        <v>45986</v>
-      </c>
-      <c r="C147" s="2">
-        <v>999</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="2">
-        <v>45987</v>
-      </c>
-      <c r="C148" s="2">
-        <v>6</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="2">
-        <v>45988</v>
-      </c>
-      <c r="C149" s="2">
-        <v>22</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="2">
-        <v>45990</v>
-      </c>
-      <c r="C150" s="2">
-        <v>2</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="2">
-        <v>45990</v>
-      </c>
-      <c r="C151" s="2">
-        <v>3</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="2">
-        <v>45991</v>
-      </c>
-      <c r="C152" s="2">
-        <v>3</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C153" s="2">
-        <v>100</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="2">
-        <v>45994</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C155" s="2">
-        <v>78</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C156" s="2">
-        <v>2</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C157" s="2">
-        <v>166</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C158" s="2">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C159" s="2">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C160" s="2">
-        <v>80</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C161" s="2">
-        <v>82</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="2">
-        <v>45969</v>
-      </c>
-      <c r="C162" s="2">
-        <v>4</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="2">
-        <v>45982</v>
-      </c>
-      <c r="C163" s="2">
-        <v>4</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="2">
-        <v>45982</v>
-      </c>
-      <c r="C164" s="2">
-        <v>79</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C165" s="2">
-        <v>3</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C167" s="2">
-        <v>134</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="2">
-        <v>45986</v>
-      </c>
-      <c r="C168" s="2">
-        <v>136</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="2">
-        <v>45987</v>
-      </c>
-      <c r="C169" s="2">
-        <v>42</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="2">
-        <v>45988</v>
-      </c>
-      <c r="C170" s="2">
-        <v>5</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="2">
-        <v>45988</v>
-      </c>
-      <c r="C171" s="2">
-        <v>2</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="2">
-        <v>45988</v>
-      </c>
-      <c r="C172" s="2">
-        <v>1278</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="2">
-        <v>45989</v>
-      </c>
-      <c r="C173" s="2">
-        <v>462</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="2">
-        <v>45990</v>
-      </c>
-      <c r="C174" s="2">
-        <v>3</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="2">
-        <v>45990</v>
-      </c>
-      <c r="C175" s="2">
-        <v>46</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="2">
-        <v>45991</v>
-      </c>
-      <c r="C176" s="2">
-        <v>17</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="2">
-        <v>45991</v>
-      </c>
-      <c r="C177" s="2">
-        <v>4</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="2">
-        <v>45991</v>
-      </c>
-      <c r="C178" s="2">
-        <v>1317</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C179" s="2">
-        <v>117</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="2">
-        <v>45993</v>
-      </c>
-      <c r="C180" s="2">
-        <v>66</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="2">
-        <v>45993</v>
-      </c>
-      <c r="C181" s="2">
-        <v>488</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="2">
-        <v>45994</v>
-      </c>
-      <c r="C182" s="2">
-        <v>3</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="2">
-        <v>45994</v>
-      </c>
-      <c r="C183" s="2">
-        <v>712</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C184" s="2">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C185" s="2">
-        <v>64</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" s="2">
-        <v>45996</v>
-      </c>
-      <c r="C186" s="2">
-        <v>94</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" s="2">
-        <v>45996</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1326</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="2">
-        <v>45997</v>
-      </c>
-      <c r="C188" s="2">
-        <v>2</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" s="2">
-        <v>45997</v>
-      </c>
-      <c r="C189" s="2">
-        <v>1628</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C190" s="2">
-        <v>21</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C191" s="2">
-        <v>3</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C192" s="2">
-        <v>718</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C193" s="2">
-        <v>1</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C194" s="2">
-        <v>7</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C195" s="2">
-        <v>10</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="2">
-        <v>45981</v>
-      </c>
-      <c r="C196" s="2">
-        <v>34</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="2">
-        <v>45982</v>
-      </c>
-      <c r="C197" s="2">
-        <v>108</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="2">
-        <v>45983</v>
-      </c>
-      <c r="C198" s="2">
-        <v>18</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" s="2">
-        <v>45984</v>
-      </c>
-      <c r="C199" s="2">
-        <v>74</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="2">
-        <v>45985</v>
-      </c>
-      <c r="C200" s="2">
-        <v>178</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B201" s="2">
-        <v>45986</v>
-      </c>
-      <c r="C201" s="2">
-        <v>24</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="2">
-        <v>45988</v>
-      </c>
-      <c r="C202" s="2">
-        <v>558</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="2">
-        <v>45989</v>
-      </c>
-      <c r="C203" s="2">
-        <v>16</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" s="2">
-        <v>45989</v>
-      </c>
-      <c r="C204" s="2">
-        <v>1141</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" s="2">
-        <v>45990</v>
-      </c>
-      <c r="C205" s="2">
-        <v>4</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="2">
-        <v>45991</v>
-      </c>
-      <c r="C206" s="2">
-        <v>363</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C207" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C208" s="2">
-        <v>656</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C209" s="2">
-        <v>797</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B210" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C210" s="2">
-        <v>1</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B211" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C211" s="2">
-        <v>803</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="2">
-        <v>45995</v>
-      </c>
-      <c r="C212" s="2">
-        <v>865</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="2">
-        <v>45996</v>
-      </c>
-      <c r="C213" s="2">
-        <v>93</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" s="2">
-        <v>45997</v>
-      </c>
-      <c r="C214" s="2">
-        <v>1</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C215" s="2">
-        <v>1</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B216" s="2">
-        <v>45998</v>
-      </c>
-      <c r="C216" s="2">
-        <v>1401</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B217" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C217" s="2">
-        <v>77</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C218" s="2">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C219" s="2">
-        <v>1</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1005</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C221" s="2">
-        <v>4</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B223" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C223" s="2">
-        <v>91</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/For Winter Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45966</v>
+        <v>45971</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45969</v>
+        <v>45975</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45985</v>
+        <v>45981</v>
       </c>
       <c r="C4" s="2">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45988</v>
+        <v>45983</v>
       </c>
       <c r="C5" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45991</v>
+        <v>45983</v>
       </c>
       <c r="C6" s="2">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45994</v>
+        <v>45984</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45996</v>
+        <v>45984</v>
       </c>
       <c r="C8" s="2">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45997</v>
+        <v>45984</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>1514</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45997</v>
+        <v>45986</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45998</v>
+        <v>45987</v>
       </c>
       <c r="C11" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45998</v>
+        <v>45987</v>
       </c>
       <c r="C12" s="2">
-        <v>34</v>
+        <v>1034</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45999</v>
+        <v>45988</v>
       </c>
       <c r="C13" s="2">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>46001</v>
+        <v>45990</v>
       </c>
       <c r="C14" s="2">
-        <v>25</v>
+        <v>962</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>46002</v>
+        <v>45991</v>
       </c>
       <c r="C15" s="2">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>46004</v>
+        <v>45992</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46004</v>
+        <v>45994</v>
       </c>
       <c r="C17" s="2">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>46005</v>
+        <v>45994</v>
       </c>
       <c r="C18" s="2">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>46005</v>
+        <v>45997</v>
       </c>
       <c r="C19" s="2">
-        <v>925</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45984</v>
+        <v>45997</v>
       </c>
       <c r="C20" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45987</v>
+        <v>45999</v>
       </c>
       <c r="C21" s="2">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="C22" s="2">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45990</v>
+        <v>46000</v>
       </c>
       <c r="C23" s="2">
-        <v>164</v>
+        <v>913</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="C26" s="2">
-        <v>9</v>
+        <v>1104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C27" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>46002</v>
+        <v>45982</v>
       </c>
       <c r="C30" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>46003</v>
+        <v>45982</v>
       </c>
       <c r="C31" s="2">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>46003</v>
+        <v>45982</v>
       </c>
       <c r="C32" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>46004</v>
+        <v>45983</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>46005</v>
+        <v>45983</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>46005</v>
+        <v>45983</v>
       </c>
       <c r="C35" s="2">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>46005</v>
+        <v>45984</v>
       </c>
       <c r="C36" s="2">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45981</v>
+        <v>45985</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="C38" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45987</v>
+        <v>45985</v>
       </c>
       <c r="C39" s="2">
-        <v>33</v>
+        <v>1280</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45989</v>
+        <v>45987</v>
       </c>
       <c r="C40" s="2">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45992</v>
+        <v>45988</v>
       </c>
       <c r="C42" s="2">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="C43" s="2">
-        <v>73</v>
+        <v>672</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45996</v>
+        <v>45990</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45996</v>
+        <v>45990</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45997</v>
+        <v>45991</v>
       </c>
       <c r="C46" s="2">
-        <v>62</v>
+        <v>964</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C47" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>46003</v>
+        <v>45994</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>593</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C49" s="2">
-        <v>1130</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45986</v>
+        <v>45996</v>
       </c>
       <c r="C51" s="2">
-        <v>66</v>
+        <v>1091</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1134,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="C52" s="2">
-        <v>174</v>
+        <v>1058</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="C53" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45990</v>
+        <v>46002</v>
       </c>
       <c r="C54" s="2">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45992</v>
+        <v>46002</v>
       </c>
       <c r="C55" s="2">
-        <v>14</v>
+        <v>1080</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1190,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45993</v>
+        <v>46003</v>
       </c>
       <c r="C56" s="2">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45993</v>
+        <v>46005</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C58" s="2">
-        <v>64</v>
+        <v>1548</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45995</v>
+        <v>45981</v>
       </c>
       <c r="C59" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45996</v>
+        <v>45982</v>
       </c>
       <c r="C60" s="2">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45996</v>
+        <v>45983</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>1204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45997</v>
+        <v>45984</v>
       </c>
       <c r="C62" s="2">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1288,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45999</v>
+        <v>45985</v>
       </c>
       <c r="C63" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45999</v>
+        <v>45985</v>
       </c>
       <c r="C64" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>46000</v>
+        <v>45986</v>
       </c>
       <c r="C65" s="2">
-        <v>118</v>
+        <v>999</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>46002</v>
+        <v>45987</v>
       </c>
       <c r="C66" s="2">
-        <v>321</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>46003</v>
+        <v>45988</v>
       </c>
       <c r="C67" s="2">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1358,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>46004</v>
+        <v>45990</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45982</v>
+        <v>45990</v>
       </c>
       <c r="C69" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="2">
-        <v>45985</v>
+        <v>45991</v>
       </c>
       <c r="C70" s="2">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="B71" s="2">
-        <v>45986</v>
+        <v>45992</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="2">
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="C72" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="2">
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="C73" s="2">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="2">
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="C74" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="2">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="C75" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="2">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C78" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
@@ -1526,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="2">
-        <v>45997</v>
+        <v>46003</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C81" s="2">
-        <v>1061</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="2">
-        <v>45998</v>
+        <v>46004</v>
       </c>
       <c r="C82" s="2">
-        <v>141</v>
+        <v>1591</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -1582,13 +1582,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>46001</v>
+        <v>45968</v>
       </c>
       <c r="C84" s="2">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>46001</v>
+        <v>45968</v>
       </c>
       <c r="C85" s="2">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
@@ -1610,13 +1610,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>46003</v>
+        <v>45981</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <v>46004</v>
+        <v>45981</v>
       </c>
       <c r="C87" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="2">
-        <v>46004</v>
+        <v>45983</v>
       </c>
       <c r="C88" s="2">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -1652,10 +1652,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="2">
-        <v>45983</v>
+        <v>45984</v>
       </c>
       <c r="C89" s="2">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="2">
-        <v>45986</v>
+        <v>45984</v>
       </c>
       <c r="C90" s="2">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1680,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="2">
-        <v>45989</v>
+        <v>45984</v>
       </c>
       <c r="C91" s="2">
-        <v>4</v>
+        <v>949</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="2">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="2">
-        <v>45990</v>
+        <v>45987</v>
       </c>
       <c r="C93" s="2">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <v>45990</v>
+        <v>45987</v>
       </c>
       <c r="C94" s="2">
-        <v>263</v>
+        <v>1431</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="2">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="C95" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="2">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C97" s="2">
-        <v>11</v>
+        <v>1625</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -1778,10 +1778,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C98" s="2">
-        <v>183</v>
+        <v>368</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>7</v>
@@ -1792,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="2">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="C99" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="C100" s="2">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C101" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C102" s="2">
-        <v>115</v>
+        <v>738</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C103" s="2">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>4</v>
       </c>
       <c r="B104" s="2">
-        <v>46005</v>
+        <v>45994</v>
       </c>
       <c r="C104" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="2">
-        <v>46005</v>
+        <v>45996</v>
       </c>
       <c r="C105" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2">
-        <v>45974</v>
+        <v>45996</v>
       </c>
       <c r="C106" s="2">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="2">
-        <v>45983</v>
+        <v>45997</v>
       </c>
       <c r="C107" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2">
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="C108" s="2">
-        <v>239</v>
+        <v>1192</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C110" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C111" s="2">
-        <v>104</v>
+        <v>570</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -1974,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C112" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
@@ -1988,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="C113" s="2">
-        <v>322</v>
+        <v>997</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="C114" s="2">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="2">
-        <v>46003</v>
+        <v>45969</v>
       </c>
       <c r="C115" s="2">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2">
-        <v>46004</v>
+        <v>45969</v>
       </c>
       <c r="C116" s="2">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="2">
-        <v>46005</v>
+        <v>45975</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2">
-        <v>46005</v>
+        <v>45983</v>
       </c>
       <c r="C118" s="2">
-        <v>13</v>
+        <v>947</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="2">
-        <v>45968</v>
+        <v>45984</v>
       </c>
       <c r="C119" s="2">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2086,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="2">
-        <v>45982</v>
+        <v>45986</v>
       </c>
       <c r="C120" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>6</v>
@@ -2100,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="2">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>1213</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="B122" s="2">
-        <v>45989</v>
+        <v>45987</v>
       </c>
       <c r="C122" s="2">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="B123" s="2">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="C123" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="B124" s="2">
-        <v>45991</v>
+        <v>45989</v>
       </c>
       <c r="C124" s="2">
-        <v>309</v>
+        <v>1402</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>4</v>
       </c>
       <c r="B125" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C125" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>4</v>
       </c>
       <c r="B126" s="2">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="C126" s="2">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B127" s="2">
-        <v>45994</v>
+        <v>45990</v>
       </c>
       <c r="C127" s="2">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B128" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C128" s="2">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B129" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="C129" s="2">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="B130" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C130" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>4</v>
       </c>
       <c r="B131" s="2">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="C131" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>4</v>
       </c>
       <c r="B132" s="2">
-        <v>45997</v>
+        <v>45995</v>
       </c>
       <c r="C132" s="2">
-        <v>1156</v>
+        <v>67</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="2">
-        <v>45998</v>
+        <v>45997</v>
       </c>
       <c r="C133" s="2">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>7</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B134" s="2">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="C134" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="B135" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C135" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2310,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="2">
-        <v>46002</v>
+        <v>45998</v>
       </c>
       <c r="C136" s="2">
-        <v>174</v>
+        <v>1151</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>6</v>
@@ -2324,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>46003</v>
+        <v>45999</v>
       </c>
       <c r="C137" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>4</v>
       </c>
       <c r="B138" s="2">
-        <v>46004</v>
+        <v>46000</v>
       </c>
       <c r="C138" s="2">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2352,12 +2352,1608 @@
         <v>4</v>
       </c>
       <c r="B139" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C139" s="2">
+        <v>53</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C140" s="2">
+        <v>97</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C141" s="2">
+        <v>725</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C142" s="2">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C143" s="2">
+        <v>68</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C144" s="2">
+        <v>70</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C145" s="2">
+        <v>847</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
         <v>46005</v>
       </c>
-      <c r="C139" s="2">
-        <v>332</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45981</v>
+      </c>
+      <c r="C147" s="2">
+        <v>34</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C148" s="2">
+        <v>108</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C149" s="2">
+        <v>18</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45984</v>
+      </c>
+      <c r="C150" s="2">
+        <v>74</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C151" s="2">
+        <v>178</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C152" s="2">
+        <v>24</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C153" s="2">
+        <v>558</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C154" s="2">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C156" s="2">
+        <v>4</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C157" s="2">
+        <v>363</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C158" s="2">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C159" s="2">
+        <v>656</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C160" s="2">
+        <v>797</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C162" s="2">
+        <v>803</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C163" s="2">
+        <v>865</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C164" s="2">
+        <v>93</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1401</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C168" s="2">
+        <v>77</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C169" s="2">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C172" s="2">
+        <v>4</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C174" s="2">
+        <v>91</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C176" s="2">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C179" s="2">
+        <v>3</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C180" s="2">
+        <v>187</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45965</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C182" s="2">
+        <v>434</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45980</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1451</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C185" s="2">
+        <v>570</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C187" s="2">
+        <v>136</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1228</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C190" s="2">
+        <v>5</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C192" s="2">
+        <v>201</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C194" s="2">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C195" s="2">
+        <v>5</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C197" s="2">
+        <v>281</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C199" s="2">
+        <v>15</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C201" s="2">
+        <v>54</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C202" s="2">
+        <v>7</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C204" s="2">
+        <v>2</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C205" s="2">
+        <v>54</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C208" s="2">
+        <v>64</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C209" s="2">
+        <v>205</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C210" s="2">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C211" s="2">
+        <v>79</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C212" s="2">
+        <v>87</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C213" s="2">
+        <v>11</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C214" s="2">
+        <v>741</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C216" s="2">
+        <v>417</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C217" s="2">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C218" s="2">
+        <v>993</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C220" s="2">
+        <v>4</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C221" s="2">
+        <v>79</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C222" s="2">
+        <v>3</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C224" s="2">
+        <v>134</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="2">
+        <v>45986</v>
+      </c>
+      <c r="C225" s="2">
+        <v>136</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C226" s="2">
+        <v>42</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1278</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C230" s="2">
+        <v>462</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C231" s="2">
+        <v>3</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" s="2">
+        <v>45990</v>
+      </c>
+      <c r="C232" s="2">
+        <v>46</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C233" s="2">
+        <v>17</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C234" s="2">
+        <v>4</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45991</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1317</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C236" s="2">
+        <v>117</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C237" s="2">
+        <v>66</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45993</v>
+      </c>
+      <c r="C238" s="2">
+        <v>488</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C240" s="2">
+        <v>712</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C241" s="2">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45995</v>
+      </c>
+      <c r="C242" s="2">
+        <v>64</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C243" s="2">
+        <v>94</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1326</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1627</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C247" s="2">
+        <v>21</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45998</v>
+      </c>
+      <c r="C248" s="2">
+        <v>3</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C249" s="2">
+        <v>718</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C251" s="2">
+        <v>7</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C252" s="2">
+        <v>10</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C253" s="2">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>6</v>
       </c>
     </row>
